--- a/aoiConditions/train1P2Block7.xlsx
+++ b/aoiConditions/train1P2Block7.xlsx
@@ -22,28 +22,28 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/21_papika1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/08_tipako2.wav</t>
+    <t>trainingaudio/13_kopopi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/19_papipi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita3.wav</t>
   </si>
   <si>
     <t>trainingaudio/01_kitipi1.wav</t>
   </si>
   <si>
-    <t>trainingaudio/11_tokiko1.wav</t>
-  </si>
-  <si>
-    <t>pngimages/21_cheese.png</t>
-  </si>
-  <si>
-    <t>pngimages/08_bell.png</t>
+    <t>pngimages/13_toast.png</t>
+  </si>
+  <si>
+    <t>pngimages/19_burger.png</t>
+  </si>
+  <si>
+    <t>pngimages/03_box.png</t>
   </si>
   <si>
     <t>pngimages/01_gift.png</t>
-  </si>
-  <si>
-    <t>pngimages/11_compass.png</t>
   </si>
 </sst>
 </file>

--- a/aoiConditions/train1P2Block7.xlsx
+++ b/aoiConditions/train1P2Block7.xlsx
@@ -22,28 +22,28 @@
     <t>imageLoc</t>
   </si>
   <si>
+    <t>trainingaudio/24_takopa1.wav</t>
+  </si>
+  <si>
     <t>trainingaudio/13_kopopi1.wav</t>
   </si>
   <si>
-    <t>trainingaudio/19_papipi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi1.wav</t>
+    <t>trainingaudio/05_titopo2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/94_kipipi1.wav</t>
+  </si>
+  <si>
+    <t>pngimages/24_banana.png</t>
   </si>
   <si>
     <t>pngimages/13_toast.png</t>
   </si>
   <si>
-    <t>pngimages/19_burger.png</t>
-  </si>
-  <si>
-    <t>pngimages/03_box.png</t>
-  </si>
-  <si>
-    <t>pngimages/01_gift.png</t>
+    <t>pngimages/05_megaphone.png</t>
+  </si>
+  <si>
+    <t>pngimages/94_house.png</t>
   </si>
 </sst>
 </file>

--- a/aoiConditions/train1P2Block7.xlsx
+++ b/aoiConditions/train1P2Block7.xlsx
@@ -22,16 +22,16 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/24_takopa1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/13_kopopi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/05_titopo2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/94_kipipi1.wav</t>
+    <t>trainingaudio/24_takopa1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/13_kopopi1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/05_titopo2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/94_kipipi1.mp3</t>
   </si>
   <si>
     <t>pngimages/24_banana.png</t>

--- a/aoiConditions/train1P2Block7.xlsx
+++ b/aoiConditions/train1P2Block7.xlsx
@@ -22,16 +22,16 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/24_takopa1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/13_kopopi1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/05_titopo2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/94_kipipi1.mp3</t>
+    <t>trainingaudio/24_takopa1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/13_kopopi1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/05_titopo2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/94_kipipi1.ogg</t>
   </si>
   <si>
     <t>pngimages/24_banana.png</t>

--- a/aoiConditions/train1P2Block7.xlsx
+++ b/aoiConditions/train1P2Block7.xlsx
@@ -22,16 +22,16 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/24_takopa1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/13_kopopi1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/05_titopo2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/94_kipipi1.ogg</t>
+    <t>trainingaudio/24_takopa1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/13_kopopi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/05_titopo2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/94_kipipi1.wav</t>
   </si>
   <si>
     <t>pngimages/24_banana.png</t>
